--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H2">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I2">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J2">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7380845</v>
+        <v>17.130499</v>
       </c>
       <c r="N2">
-        <v>23.476169</v>
+        <v>34.260998</v>
       </c>
       <c r="O2">
-        <v>0.1091013321906703</v>
+        <v>0.09948239033343195</v>
       </c>
       <c r="P2">
-        <v>0.07797821378927297</v>
+        <v>0.07009668063912382</v>
       </c>
       <c r="Q2">
-        <v>2348.921083354541</v>
+        <v>4044.207312849217</v>
       </c>
       <c r="R2">
-        <v>9395.684333418165</v>
+        <v>16176.82925139687</v>
       </c>
       <c r="S2">
-        <v>0.02459656972265146</v>
+        <v>0.03542012566769505</v>
       </c>
       <c r="T2">
-        <v>0.01417312990552897</v>
+        <v>0.02048963971263831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H3">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I3">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J3">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.077901000000001</v>
       </c>
       <c r="O3">
-        <v>0.02502707491454698</v>
+        <v>0.0156370012019074</v>
       </c>
       <c r="P3">
-        <v>0.02683147710968438</v>
+        <v>0.01652707392328323</v>
       </c>
       <c r="Q3">
-        <v>538.8259037821357</v>
+        <v>635.6831033093277</v>
       </c>
       <c r="R3">
-        <v>3232.955422692814</v>
+        <v>3814.098619855967</v>
       </c>
       <c r="S3">
-        <v>0.005642279344617542</v>
+        <v>0.005567463204101635</v>
       </c>
       <c r="T3">
-        <v>0.004876823822362259</v>
+        <v>0.004830953293431812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H4">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I4">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J4">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.092768</v>
+        <v>22.68539933333333</v>
       </c>
       <c r="N4">
-        <v>87.27830399999999</v>
+        <v>68.05619799999999</v>
       </c>
       <c r="O4">
-        <v>0.2704069600039174</v>
+        <v>0.131741506849768</v>
       </c>
       <c r="P4">
-        <v>0.2899027626047997</v>
+        <v>0.139240356533659</v>
       </c>
       <c r="Q4">
-        <v>5821.786010174175</v>
+        <v>5355.620865380011</v>
       </c>
       <c r="R4">
-        <v>34930.71606104505</v>
+        <v>32133.72519228007</v>
       </c>
       <c r="S4">
-        <v>0.06096244208643439</v>
+        <v>0.04690579621810854</v>
       </c>
       <c r="T4">
-        <v>0.05269201889483112</v>
+        <v>0.04070071097263354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H5">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I5">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J5">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.9677855</v>
+        <v>10.690619</v>
       </c>
       <c r="N5">
-        <v>19.935571</v>
+        <v>21.381238</v>
       </c>
       <c r="O5">
-        <v>0.09264703087125048</v>
+        <v>0.06208390848766308</v>
       </c>
       <c r="P5">
-        <v>0.06621779803379463</v>
+        <v>0.04374518838462027</v>
       </c>
       <c r="Q5">
-        <v>1994.664590743548</v>
+        <v>2523.865740203177</v>
       </c>
       <c r="R5">
-        <v>7978.658362974194</v>
+        <v>10095.46296081271</v>
       </c>
       <c r="S5">
-        <v>0.02088699659907749</v>
+        <v>0.02210461402469644</v>
       </c>
       <c r="T5">
-        <v>0.01203558542809502</v>
+        <v>0.0127869556873437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H6">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I6">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J6">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.059523</v>
+        <v>102.450035</v>
       </c>
       <c r="N6">
-        <v>33.178569</v>
+        <v>307.350105</v>
       </c>
       <c r="O6">
-        <v>0.1027943437188034</v>
+        <v>0.5949607405799309</v>
       </c>
       <c r="P6">
-        <v>0.1102056109199139</v>
+        <v>0.628826461931616</v>
       </c>
       <c r="Q6">
-        <v>2213.133390421961</v>
+        <v>24186.63815622991</v>
       </c>
       <c r="R6">
-        <v>13278.80034253177</v>
+        <v>145119.8289373794</v>
       </c>
       <c r="S6">
-        <v>0.02317467799526979</v>
+        <v>0.2118323064821262</v>
       </c>
       <c r="T6">
-        <v>0.02003070298721041</v>
+        <v>0.1838093834012527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H7">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I7">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J7">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.03803366666666</v>
+        <v>16.54710866666667</v>
       </c>
       <c r="N7">
-        <v>129.114101</v>
+        <v>49.641326</v>
       </c>
       <c r="O7">
-        <v>0.4000232583008115</v>
+        <v>0.09609445254729872</v>
       </c>
       <c r="P7">
-        <v>0.4288641375425344</v>
+        <v>0.1015642385876977</v>
       </c>
       <c r="Q7">
-        <v>8612.388560139934</v>
+        <v>3906.479191075753</v>
       </c>
       <c r="R7">
-        <v>51674.33136083961</v>
+        <v>23438.87514645452</v>
       </c>
       <c r="S7">
-        <v>0.09018404968953728</v>
+        <v>0.03421387015114617</v>
       </c>
       <c r="T7">
-        <v>0.07794929939840643</v>
+        <v>0.02968777747214557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>352.655433</v>
       </c>
       <c r="I8">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J8">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.7380845</v>
+        <v>17.130499</v>
       </c>
       <c r="N8">
-        <v>23.476169</v>
+        <v>34.260998</v>
       </c>
       <c r="O8">
-        <v>0.1091013321906703</v>
+        <v>0.09948239033343195</v>
       </c>
       <c r="P8">
-        <v>0.07797821378927297</v>
+        <v>0.07009668063912382</v>
       </c>
       <c r="Q8">
-        <v>1379.833090646029</v>
+        <v>2013.721180783689</v>
       </c>
       <c r="R8">
-        <v>8278.998543876178</v>
+        <v>12082.32708470213</v>
       </c>
       <c r="S8">
-        <v>0.01444882974579441</v>
+        <v>0.01763664712648148</v>
       </c>
       <c r="T8">
-        <v>0.01248864028271946</v>
+        <v>0.01530352611185664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>352.655433</v>
       </c>
       <c r="I9">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J9">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.077901000000001</v>
       </c>
       <c r="O9">
-        <v>0.02502707491454698</v>
+        <v>0.0156370012019074</v>
       </c>
       <c r="P9">
-        <v>0.02683147710968438</v>
+        <v>0.01652707392328323</v>
       </c>
       <c r="Q9">
         <v>316.523963876237</v>
@@ -1013,10 +1013,10 @@
         <v>2848.715674886133</v>
       </c>
       <c r="S9">
-        <v>0.003314459477392653</v>
+        <v>0.00277219185616741</v>
       </c>
       <c r="T9">
-        <v>0.004297208791963451</v>
+        <v>0.003608195210264828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>352.655433</v>
       </c>
       <c r="I10">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J10">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.092768</v>
+        <v>22.68539933333333</v>
       </c>
       <c r="N10">
-        <v>87.27830399999999</v>
+        <v>68.05619799999999</v>
       </c>
       <c r="O10">
-        <v>0.2704069600039174</v>
+        <v>0.131741506849768</v>
       </c>
       <c r="P10">
-        <v>0.2899027626047997</v>
+        <v>0.139240356533659</v>
       </c>
       <c r="Q10">
-        <v>3419.907565402847</v>
+        <v>2666.709774891526</v>
       </c>
       <c r="R10">
-        <v>30779.16808862563</v>
+        <v>24000.38797402373</v>
       </c>
       <c r="S10">
-        <v>0.03581133290239098</v>
+        <v>0.0233556759184492</v>
       </c>
       <c r="T10">
-        <v>0.04642952362209673</v>
+        <v>0.03039899197234959</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>352.655433</v>
       </c>
       <c r="I11">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J11">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.9677855</v>
+        <v>10.690619</v>
       </c>
       <c r="N11">
-        <v>19.935571</v>
+        <v>21.381238</v>
       </c>
       <c r="O11">
-        <v>0.09264703087125048</v>
+        <v>0.06208390848766308</v>
       </c>
       <c r="P11">
-        <v>0.06621779803379463</v>
+        <v>0.04374518838462027</v>
       </c>
       <c r="Q11">
-        <v>1171.731237184541</v>
+        <v>1256.701624161009</v>
       </c>
       <c r="R11">
-        <v>7030.387423107243</v>
+        <v>7540.209744966054</v>
       </c>
       <c r="S11">
-        <v>0.01226970513222137</v>
+        <v>0.01100649052118437</v>
       </c>
       <c r="T11">
-        <v>0.01060514494718512</v>
+        <v>0.009550461257340531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>352.655433</v>
       </c>
       <c r="I12">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J12">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.059523</v>
+        <v>102.450035</v>
       </c>
       <c r="N12">
-        <v>33.178569</v>
+        <v>307.350105</v>
       </c>
       <c r="O12">
-        <v>0.1027943437188034</v>
+        <v>0.5949607405799309</v>
       </c>
       <c r="P12">
-        <v>0.1102056109199139</v>
+        <v>0.628826461931616</v>
       </c>
       <c r="Q12">
-        <v>1300.066957446153</v>
+        <v>12043.18715126338</v>
       </c>
       <c r="R12">
-        <v>11700.60261701538</v>
+        <v>108388.6843613705</v>
       </c>
       <c r="S12">
-        <v>0.01361356402713725</v>
+        <v>0.1054770859500752</v>
       </c>
       <c r="T12">
-        <v>0.01765003537572025</v>
+        <v>0.1372855617734597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>352.655433</v>
       </c>
       <c r="I13">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J13">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.03803366666666</v>
+        <v>16.54710866666667</v>
       </c>
       <c r="N13">
-        <v>129.114101</v>
+        <v>49.641326</v>
       </c>
       <c r="O13">
-        <v>0.4000232583008115</v>
+        <v>0.09609445254729872</v>
       </c>
       <c r="P13">
-        <v>0.4288641375425344</v>
+        <v>0.1015642385876977</v>
       </c>
       <c r="Q13">
-        <v>5059.198799395635</v>
+        <v>1945.142590580462</v>
       </c>
       <c r="R13">
-        <v>45532.78919456073</v>
+        <v>17506.28331522416</v>
       </c>
       <c r="S13">
-        <v>0.05297706120989624</v>
+        <v>0.01703601958807758</v>
       </c>
       <c r="T13">
-        <v>0.06868495293315144</v>
+        <v>0.02217353180045099</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H14">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I14">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J14">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.7380845</v>
+        <v>17.130499</v>
       </c>
       <c r="N14">
-        <v>23.476169</v>
+        <v>34.260998</v>
       </c>
       <c r="O14">
-        <v>0.1091013321906703</v>
+        <v>0.09948239033343195</v>
       </c>
       <c r="P14">
-        <v>0.07797821378927297</v>
+        <v>0.07009668063912382</v>
       </c>
       <c r="Q14">
-        <v>969.4447874376688</v>
+        <v>1123.438806642459</v>
       </c>
       <c r="R14">
-        <v>5816.668724626013</v>
+        <v>6740.632839854757</v>
       </c>
       <c r="S14">
-        <v>0.01015147612895453</v>
+        <v>0.009839343197074347</v>
       </c>
       <c r="T14">
-        <v>0.008774283865447832</v>
+        <v>0.008537713799005196</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H15">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I15">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J15">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.077901000000001</v>
       </c>
       <c r="O15">
-        <v>0.02502707491454698</v>
+        <v>0.0156370012019074</v>
       </c>
       <c r="P15">
-        <v>0.02683147710968438</v>
+        <v>0.01652707392328323</v>
       </c>
       <c r="Q15">
-        <v>222.3837860963752</v>
+        <v>176.5861667663803</v>
       </c>
       <c r="R15">
-        <v>2001.454074867377</v>
+        <v>1589.275500897422</v>
       </c>
       <c r="S15">
-        <v>0.002328676914123935</v>
+        <v>0.00154658347957815</v>
       </c>
       <c r="T15">
-        <v>0.003019138106008051</v>
+        <v>0.002012983008688126</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H16">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I16">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J16">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.092768</v>
+        <v>22.68539933333333</v>
       </c>
       <c r="N16">
-        <v>87.27830399999999</v>
+        <v>68.05619799999999</v>
       </c>
       <c r="O16">
-        <v>0.2704069600039174</v>
+        <v>0.131741506849768</v>
       </c>
       <c r="P16">
-        <v>0.2899027626047997</v>
+        <v>0.139240356533659</v>
       </c>
       <c r="Q16">
-        <v>2402.762758245045</v>
+        <v>1487.735877118795</v>
       </c>
       <c r="R16">
-        <v>21624.8648242054</v>
+        <v>13389.62289406916</v>
       </c>
       <c r="S16">
-        <v>0.02516036921332541</v>
+        <v>0.01302994323769251</v>
       </c>
       <c r="T16">
-        <v>0.03262051038186218</v>
+        <v>0.01695935246172426</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H17">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I17">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J17">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.9677855</v>
+        <v>10.690619</v>
       </c>
       <c r="N17">
-        <v>19.935571</v>
+        <v>21.381238</v>
       </c>
       <c r="O17">
-        <v>0.09264703087125048</v>
+        <v>0.06208390848766308</v>
       </c>
       <c r="P17">
-        <v>0.06621779803379463</v>
+        <v>0.04374518838462027</v>
       </c>
       <c r="Q17">
-        <v>823.2363376896611</v>
+        <v>701.1037011606727</v>
       </c>
       <c r="R17">
-        <v>4939.418026137966</v>
+        <v>4206.622206964036</v>
       </c>
       <c r="S17">
-        <v>0.008620464144877226</v>
+        <v>0.006140432297399145</v>
       </c>
       <c r="T17">
-        <v>0.007450975454035526</v>
+        <v>0.005328125313582933</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H18">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I18">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J18">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.059523</v>
+        <v>102.450035</v>
       </c>
       <c r="N18">
-        <v>33.178569</v>
+        <v>307.350105</v>
       </c>
       <c r="O18">
-        <v>0.1027943437188034</v>
+        <v>0.5949607405799309</v>
       </c>
       <c r="P18">
-        <v>0.1102056109199139</v>
+        <v>0.628826461931616</v>
       </c>
       <c r="Q18">
-        <v>913.4026019234237</v>
+        <v>6718.796986642257</v>
       </c>
       <c r="R18">
-        <v>8220.623417310813</v>
+        <v>60469.17287978032</v>
       </c>
       <c r="S18">
-        <v>0.009564634138740747</v>
+        <v>0.05884481560737248</v>
       </c>
       <c r="T18">
-        <v>0.01240058301911814</v>
+        <v>0.07659050774248304</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H19">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I19">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J19">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.03803366666666</v>
+        <v>16.54710866666667</v>
       </c>
       <c r="N19">
-        <v>129.114101</v>
+        <v>49.641326</v>
       </c>
       <c r="O19">
-        <v>0.4000232583008115</v>
+        <v>0.09609445254729872</v>
       </c>
       <c r="P19">
-        <v>0.4288641375425344</v>
+        <v>0.1015642385876977</v>
       </c>
       <c r="Q19">
-        <v>3554.497959161641</v>
+        <v>1085.179364235864</v>
       </c>
       <c r="R19">
-        <v>31990.48163245477</v>
+        <v>9766.614278122772</v>
       </c>
       <c r="S19">
-        <v>0.03722068719170561</v>
+        <v>0.009504257937297485</v>
       </c>
       <c r="T19">
-        <v>0.04825675659457477</v>
+        <v>0.01237043456793394</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H20">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I20">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J20">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.7380845</v>
+        <v>17.130499</v>
       </c>
       <c r="N20">
-        <v>23.476169</v>
+        <v>34.260998</v>
       </c>
       <c r="O20">
-        <v>0.1091013321906703</v>
+        <v>0.09948239033343195</v>
       </c>
       <c r="P20">
-        <v>0.07797821378927297</v>
+        <v>0.07009668063912382</v>
       </c>
       <c r="Q20">
-        <v>3061.177932585702</v>
+        <v>2360.855711005816</v>
       </c>
       <c r="R20">
-        <v>12244.71173034281</v>
+        <v>9443.422844023265</v>
       </c>
       <c r="S20">
-        <v>0.03205491959089435</v>
+        <v>0.02067693357396371</v>
       </c>
       <c r="T20">
-        <v>0.01847080892156439</v>
+        <v>0.01196107894329334</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H21">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I21">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J21">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.077901000000001</v>
       </c>
       <c r="O21">
-        <v>0.02502707491454698</v>
+        <v>0.0156370012019074</v>
       </c>
       <c r="P21">
-        <v>0.02683147710968438</v>
+        <v>0.01652707392328323</v>
       </c>
       <c r="Q21">
-        <v>702.2125936252484</v>
+        <v>371.0878223451945</v>
       </c>
       <c r="R21">
-        <v>4213.275561751489</v>
+        <v>2226.526934071167</v>
       </c>
       <c r="S21">
-        <v>0.007353172118733259</v>
+        <v>0.00325007505412919</v>
       </c>
       <c r="T21">
-        <v>0.006355609633680603</v>
+        <v>0.002820128344104519</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H22">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I22">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J22">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>29.092768</v>
+        <v>22.68539933333333</v>
       </c>
       <c r="N22">
-        <v>87.27830399999999</v>
+        <v>68.05619799999999</v>
       </c>
       <c r="O22">
-        <v>0.2704069600039174</v>
+        <v>0.131741506849768</v>
       </c>
       <c r="P22">
-        <v>0.2899027626047997</v>
+        <v>0.139240356533659</v>
       </c>
       <c r="Q22">
-        <v>7587.110094448158</v>
+        <v>3126.409485943611</v>
       </c>
       <c r="R22">
-        <v>45522.66056668895</v>
+        <v>18758.45691566166</v>
       </c>
       <c r="S22">
-        <v>0.07944791494017138</v>
+        <v>0.0273818348849134</v>
       </c>
       <c r="T22">
-        <v>0.0686696741781936</v>
+        <v>0.02375954012951994</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H23">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I23">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J23">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.9677855</v>
+        <v>10.690619</v>
       </c>
       <c r="N23">
-        <v>19.935571</v>
+        <v>21.381238</v>
       </c>
       <c r="O23">
-        <v>0.09264703087125048</v>
+        <v>0.06208390848766308</v>
       </c>
       <c r="P23">
-        <v>0.06621779803379463</v>
+        <v>0.04374518838462027</v>
       </c>
       <c r="Q23">
-        <v>2599.501222652447</v>
+        <v>1473.337637177837</v>
       </c>
       <c r="R23">
-        <v>10398.00489060979</v>
+        <v>5893.350548711346</v>
       </c>
       <c r="S23">
-        <v>0.02722050285988166</v>
+        <v>0.01290384004152794</v>
       </c>
       <c r="T23">
-        <v>0.01568510273900654</v>
+        <v>0.007464542498830403</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H24">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I24">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J24">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.059523</v>
+        <v>102.450035</v>
       </c>
       <c r="N24">
-        <v>33.178569</v>
+        <v>307.350105</v>
       </c>
       <c r="O24">
-        <v>0.1027943437188034</v>
+        <v>0.5949607405799309</v>
       </c>
       <c r="P24">
-        <v>0.1102056109199139</v>
+        <v>0.628826461931616</v>
       </c>
       <c r="Q24">
-        <v>2884.215712753135</v>
+        <v>14119.24721063267</v>
       </c>
       <c r="R24">
-        <v>17305.29427651881</v>
+        <v>84715.48326379604</v>
       </c>
       <c r="S24">
-        <v>0.03020187156419317</v>
+        <v>0.1236597117425043</v>
       </c>
       <c r="T24">
-        <v>0.02610455770232101</v>
+        <v>0.1073009860697723</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H25">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I25">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J25">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>43.03803366666666</v>
+        <v>16.54710866666667</v>
       </c>
       <c r="N25">
-        <v>129.114101</v>
+        <v>49.641326</v>
       </c>
       <c r="O25">
-        <v>0.4000232583008115</v>
+        <v>0.09609445254729872</v>
       </c>
       <c r="P25">
-        <v>0.4288641375425344</v>
+        <v>0.1015642385876977</v>
       </c>
       <c r="Q25">
-        <v>11223.89934424824</v>
+        <v>2280.455227622607</v>
       </c>
       <c r="R25">
-        <v>67343.39606548948</v>
+        <v>13682.73136573564</v>
       </c>
       <c r="S25">
-        <v>0.1175303098674408</v>
+        <v>0.01997276709463198</v>
       </c>
       <c r="T25">
-        <v>0.1015856500543409</v>
+        <v>0.01733060488009603</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H26">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I26">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J26">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.7380845</v>
+        <v>17.130499</v>
       </c>
       <c r="N26">
-        <v>23.476169</v>
+        <v>34.260998</v>
       </c>
       <c r="O26">
-        <v>0.1091013321906703</v>
+        <v>0.09948239033343195</v>
       </c>
       <c r="P26">
-        <v>0.07797821378927297</v>
+        <v>0.07009668063912382</v>
       </c>
       <c r="Q26">
-        <v>1437.60594316797</v>
+        <v>681.4541224336657</v>
       </c>
       <c r="R26">
-        <v>8625.635659007818</v>
+        <v>4088.724734601994</v>
       </c>
       <c r="S26">
-        <v>0.01505379429960691</v>
+        <v>0.005968336632170372</v>
       </c>
       <c r="T26">
-        <v>0.01301153278192406</v>
+        <v>0.005178795881084883</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H27">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I27">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J27">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.077901000000001</v>
       </c>
       <c r="O27">
-        <v>0.02502707491454698</v>
+        <v>0.0156370012019074</v>
       </c>
       <c r="P27">
-        <v>0.02683147710968438</v>
+        <v>0.01652707392328323</v>
       </c>
       <c r="Q27">
-        <v>329.7766481383025</v>
+        <v>107.1134187249115</v>
       </c>
       <c r="R27">
-        <v>2967.989833244722</v>
+        <v>964.0207685242032</v>
       </c>
       <c r="S27">
-        <v>0.003453234072577712</v>
+        <v>0.0009381246950122057</v>
       </c>
       <c r="T27">
-        <v>0.004477130560383901</v>
+        <v>0.001221032744773268</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H28">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I28">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J28">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>29.092768</v>
+        <v>22.68539933333333</v>
       </c>
       <c r="N28">
-        <v>87.27830399999999</v>
+        <v>68.05619799999999</v>
       </c>
       <c r="O28">
-        <v>0.2704069600039174</v>
+        <v>0.131741506849768</v>
       </c>
       <c r="P28">
-        <v>0.2899027626047997</v>
+        <v>0.139240356533659</v>
       </c>
       <c r="Q28">
-        <v>3563.097214030698</v>
+        <v>902.4289890652883</v>
       </c>
       <c r="R28">
-        <v>32067.87492627629</v>
+        <v>8121.860901587595</v>
       </c>
       <c r="S28">
-        <v>0.03731073371282906</v>
+        <v>0.007903686860292082</v>
       </c>
       <c r="T28">
-        <v>0.04837350223738524</v>
+        <v>0.0102871830495042</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H29">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I29">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J29">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.9677855</v>
+        <v>10.690619</v>
       </c>
       <c r="N29">
-        <v>19.935571</v>
+        <v>21.381238</v>
       </c>
       <c r="O29">
-        <v>0.09264703087125048</v>
+        <v>0.06208390848766308</v>
       </c>
       <c r="P29">
-        <v>0.06621779803379463</v>
+        <v>0.04374518838462027</v>
       </c>
       <c r="Q29">
-        <v>1220.79097956941</v>
+        <v>425.2746162804524</v>
       </c>
       <c r="R29">
-        <v>7324.745877416462</v>
+        <v>2551.647697682714</v>
       </c>
       <c r="S29">
-        <v>0.01278343093710089</v>
+        <v>0.00372465583158299</v>
       </c>
       <c r="T29">
-        <v>0.01104917653271599</v>
+        <v>0.00323192766558918</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H30">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I30">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J30">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.059523</v>
+        <v>102.450035</v>
       </c>
       <c r="N30">
-        <v>33.178569</v>
+        <v>307.350105</v>
       </c>
       <c r="O30">
-        <v>0.1027943437188034</v>
+        <v>0.5949607405799309</v>
       </c>
       <c r="P30">
-        <v>0.1102056109199139</v>
+        <v>0.628826461931616</v>
       </c>
       <c r="Q30">
-        <v>1354.500045846735</v>
+        <v>4075.479569755869</v>
       </c>
       <c r="R30">
-        <v>12190.50041262062</v>
+        <v>36679.31612780282</v>
       </c>
       <c r="S30">
-        <v>0.01418355646475125</v>
+        <v>0.03569401550168717</v>
       </c>
       <c r="T30">
-        <v>0.01838903264842017</v>
+        <v>0.04645817549812781</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H31">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I31">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J31">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>43.03803366666666</v>
+        <v>16.54710866666667</v>
       </c>
       <c r="N31">
-        <v>129.114101</v>
+        <v>49.641326</v>
       </c>
       <c r="O31">
-        <v>0.4000232583008115</v>
+        <v>0.09609445254729872</v>
       </c>
       <c r="P31">
-        <v>0.4288641375425344</v>
+        <v>0.1015642385876977</v>
       </c>
       <c r="Q31">
-        <v>5271.024670291235</v>
+        <v>658.2467571585531</v>
       </c>
       <c r="R31">
-        <v>47439.22203262112</v>
+        <v>5924.220814426979</v>
       </c>
       <c r="S31">
-        <v>0.05519518162248336</v>
+        <v>0.00576508102955848</v>
       </c>
       <c r="T31">
-        <v>0.07156075413199463</v>
+        <v>0.007503642906735872</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H32">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I32">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J32">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.7380845</v>
+        <v>17.130499</v>
       </c>
       <c r="N32">
-        <v>23.476169</v>
+        <v>34.260998</v>
       </c>
       <c r="O32">
-        <v>0.1091013321906703</v>
+        <v>0.09948239033343195</v>
       </c>
       <c r="P32">
-        <v>0.07797821378927297</v>
+        <v>0.07009668063912382</v>
       </c>
       <c r="Q32">
-        <v>1221.966727499971</v>
+        <v>1135.046272880202</v>
       </c>
       <c r="R32">
-        <v>7331.800364999828</v>
+        <v>6810.277637281212</v>
       </c>
       <c r="S32">
-        <v>0.01279574270276864</v>
+        <v>0.00994100413604701</v>
       </c>
       <c r="T32">
-        <v>0.01105981803208825</v>
+        <v>0.008625926191245446</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H33">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I33">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J33">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.077901000000001</v>
       </c>
       <c r="O33">
-        <v>0.02502707491454698</v>
+        <v>0.0156370012019074</v>
       </c>
       <c r="P33">
-        <v>0.02683147710968438</v>
+        <v>0.01652707392328323</v>
       </c>
       <c r="Q33">
-        <v>280.3105353358903</v>
+        <v>178.410670207666</v>
       </c>
       <c r="R33">
-        <v>2522.794818023012</v>
+        <v>1605.696031868994</v>
       </c>
       <c r="S33">
-        <v>0.002935252987101871</v>
+        <v>0.00156256291291881</v>
       </c>
       <c r="T33">
-        <v>0.003805566195286109</v>
+        <v>0.002033781322020677</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H34">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I34">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J34">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>29.092768</v>
+        <v>22.68539933333333</v>
       </c>
       <c r="N34">
-        <v>87.27830399999999</v>
+        <v>68.05619799999999</v>
       </c>
       <c r="O34">
-        <v>0.2704069600039174</v>
+        <v>0.131741506849768</v>
       </c>
       <c r="P34">
-        <v>0.2899027626047997</v>
+        <v>0.139240356533659</v>
       </c>
       <c r="Q34">
-        <v>3028.636785403605</v>
+        <v>1503.107291976668</v>
       </c>
       <c r="R34">
-        <v>27257.73106863245</v>
+        <v>13527.96562779001</v>
       </c>
       <c r="S34">
-        <v>0.03171416714876613</v>
+        <v>0.01316456973031228</v>
       </c>
       <c r="T34">
-        <v>0.04111753329043082</v>
+        <v>0.01713457794792743</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H35">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I35">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J35">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.9677855</v>
+        <v>10.690619</v>
       </c>
       <c r="N35">
-        <v>19.935571</v>
+        <v>21.381238</v>
       </c>
       <c r="O35">
-        <v>0.09264703087125048</v>
+        <v>0.06208390848766308</v>
       </c>
       <c r="P35">
-        <v>0.06621779803379463</v>
+        <v>0.04374518838462027</v>
       </c>
       <c r="Q35">
-        <v>1037.673755701509</v>
+        <v>708.347564815962</v>
       </c>
       <c r="R35">
-        <v>6226.042534209052</v>
+        <v>4250.085388895772</v>
       </c>
       <c r="S35">
-        <v>0.01086593119809182</v>
+        <v>0.006203875771272206</v>
       </c>
       <c r="T35">
-        <v>0.009391812932756429</v>
+        <v>0.005383175961933519</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H36">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I36">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J36">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.059523</v>
+        <v>102.450035</v>
       </c>
       <c r="N36">
-        <v>33.178569</v>
+        <v>307.350105</v>
       </c>
       <c r="O36">
-        <v>0.1027943437188034</v>
+        <v>0.5949607405799309</v>
       </c>
       <c r="P36">
-        <v>0.1102056109199139</v>
+        <v>0.628826461931616</v>
       </c>
       <c r="Q36">
-        <v>1151.326617900959</v>
+        <v>6788.21617415793</v>
       </c>
       <c r="R36">
-        <v>10361.93956110863</v>
+        <v>61093.94556742137</v>
       </c>
       <c r="S36">
-        <v>0.01205603952871117</v>
+        <v>0.05945280529616569</v>
       </c>
       <c r="T36">
-        <v>0.01563069918712394</v>
+        <v>0.07738184744652031</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H37">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I37">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J37">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>43.03803366666666</v>
+        <v>16.54710866666667</v>
       </c>
       <c r="N37">
-        <v>129.114101</v>
+        <v>49.641326</v>
       </c>
       <c r="O37">
-        <v>0.4000232583008115</v>
+        <v>0.09609445254729872</v>
       </c>
       <c r="P37">
-        <v>0.4288641375425344</v>
+        <v>0.1015642385876977</v>
       </c>
       <c r="Q37">
-        <v>4480.377114144156</v>
+        <v>1096.391530628716</v>
       </c>
       <c r="R37">
-        <v>40323.39402729741</v>
+        <v>9867.523775658445</v>
       </c>
       <c r="S37">
-        <v>0.04691596871974818</v>
+        <v>0.009602456746587048</v>
       </c>
       <c r="T37">
-        <v>0.06082672443006622</v>
+        <v>0.01249824696033529</v>
       </c>
     </row>
   </sheetData>
